--- a/data/trans_bre/P21D_4_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P21D_4_R-Dificultad-trans_bre.xlsx
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8959964988084986</v>
+        <v>0.7761150374171573</v>
       </c>
       <c r="D5" s="6" t="inlineStr"/>
     </row>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.634932841508626</v>
+        <v>4.398480435588614</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -599,7 +599,7 @@
         <v>1.167743074491479</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4.650125143627194</v>
+        <v>4.650125143627192</v>
       </c>
     </row>
     <row r="8">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2649136133286256</v>
+        <v>0.2012883402044165</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
     </row>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.221457919826452</v>
+        <v>2.21161226086702</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.174008261457249</v>
+        <v>-1.313693621878207</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3694936182869156</v>
+        <v>0.3658870324213964</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.1106252481879867</v>
+        <v>-0.1682047690510627</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
     </row>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7802701928619796</v>
+        <v>0.7233541929293057</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2090196088853633</v>
+        <v>0.229551900538791</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.1201596560522289</v>
+        <v>0.153622468467018</v>
       </c>
     </row>
     <row r="18">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.094620943734928</v>
+        <v>1.11161336361689</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12.96077327606254</v>
+        <v>14.66905428541808</v>
       </c>
     </row>
     <row r="19">
